--- a/Model_setup/NEISO_data_file/must_run.xlsx
+++ b/Model_setup/NEISO_data_file/must_run.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\NEISO_PY36\Model_setup\NEISO_data_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Documents\GitHub\NEISO_UCED\Model_setup\NEISO_data_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB964EA-C15A-4274-B9EE-59EC3CEC7B1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13896" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="must_run" sheetId="1" r:id="rId1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,16 +856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,30 +891,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2057.9088999999999</v>
+        <v>2067.3316</v>
       </c>
       <c r="B2">
-        <v>275.41650000000004</v>
+        <v>154.87679999999997</v>
       </c>
       <c r="C2">
-        <v>37.949999999999996</v>
+        <v>92.222999999999999</v>
       </c>
       <c r="D2">
-        <v>1432.7830000000004</v>
+        <v>1312.9434000000001</v>
       </c>
       <c r="E2">
-        <v>23.438300000000009</v>
+        <v>24.084899999999998</v>
       </c>
       <c r="F2">
-        <v>695.13680000000011</v>
+        <v>577.33939999999996</v>
       </c>
       <c r="G2">
-        <v>57.125900000000001</v>
+        <v>48.842500000000001</v>
       </c>
       <c r="H2">
-        <v>155.36059999999998</v>
+        <v>65.058199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Model_setup/NEISO_data_file/must_run.xlsx
+++ b/Model_setup/NEISO_data_file/must_run.xlsx
@@ -860,7 +860,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,10 +893,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2067.3316</v>
+        <v>2067.2352999999998</v>
       </c>
       <c r="B2">
-        <v>154.87679999999997</v>
+        <v>101.8952</v>
       </c>
       <c r="C2">
         <v>92.222999999999999</v>
@@ -908,13 +908,13 @@
         <v>24.084899999999998</v>
       </c>
       <c r="F2">
-        <v>577.33939999999996</v>
+        <v>613.80099999999993</v>
       </c>
       <c r="G2">
         <v>48.842500000000001</v>
       </c>
       <c r="H2">
-        <v>65.058199999999999</v>
+        <v>28.092600000000001</v>
       </c>
     </row>
   </sheetData>
